--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2088,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2135,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2290,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2337,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2521,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2568,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2723,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2746,28 +2770,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2925,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2948,28 +2972,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3156,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3203,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3249,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3334,10 +3358,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3381,28 +3405,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3427,28 +3451,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3565,10 +3589,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3612,28 +3636,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3658,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3767,10 +3791,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3814,28 +3838,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3860,28 +3884,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3993,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4016,28 +4040,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4171,10 +4195,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4218,28 +4242,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4264,28 +4288,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4373,10 +4397,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4420,28 +4444,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4466,28 +4490,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4604,10 +4628,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4651,28 +4675,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4697,28 +4721,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4859,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4906,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5061,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5108,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5239,10 +5263,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5286,28 +5310,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5332,28 +5356,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5441,10 +5465,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5488,28 +5512,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5534,28 +5558,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5643,10 +5667,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5690,28 +5714,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5736,28 +5760,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5845,10 +5869,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5892,28 +5916,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5938,28 +5962,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6047,10 +6071,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6094,28 +6118,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6140,28 +6164,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6278,10 +6302,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6325,28 +6349,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6371,28 +6395,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6509,10 +6533,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6556,28 +6580,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6602,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6711,10 +6735,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6758,28 +6782,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6804,28 +6828,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6942,10 +6966,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6989,28 +7013,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7035,28 +7059,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7231,10 +7255,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7278,28 +7302,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7324,28 +7348,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7433,10 +7457,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7480,28 +7504,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7526,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7688,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7735,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7781,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7890,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7913,28 +7937,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8097,10 +8121,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8144,28 +8168,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8190,28 +8214,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8299,10 +8323,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8346,28 +8370,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8392,28 +8416,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8559,10 +8583,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8606,28 +8630,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8652,28 +8676,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8761,10 +8785,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8808,28 +8832,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8854,28 +8878,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8987,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
